--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
-    <t>num_iters = 72000, maxt = 10</t>
-  </si>
-  <si>
     <t>single-multiple</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>Intel Core i7-8750H (6 physical cores, 12 logical cores)</t>
+  </si>
+  <si>
+    <t>num_points = 72000, num_iters = 10</t>
   </si>
 </sst>
 </file>
@@ -211,25 +211,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="94458624"/>
-        <c:axId val="94460160"/>
+        <c:axId val="82137856"/>
+        <c:axId val="82139392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94458624"/>
+        <c:axId val="82137856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94460160"/>
+        <c:crossAx val="82139392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94460160"/>
+        <c:axId val="82139392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -257,7 +257,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94458624"/>
+        <c:crossAx val="82137856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -272,7 +272,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -601,7 +601,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -614,7 +614,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -622,7 +622,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -630,16 +630,16 @@
     </row>
     <row r="4" spans="1:4" ht="28.8">
       <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -784,16 +784,16 @@
     </row>
     <row r="16" spans="1:4" ht="28.8">
       <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -816,16 +816,16 @@
     </row>
     <row r="19" spans="1:4" ht="28.8">
       <c r="A19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -848,16 +848,16 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
         <v>1</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4">
